--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1437.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1437.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.802567157678052</v>
+        <v>1.467623114585876</v>
       </c>
       <c r="B1">
-        <v>1.988189755511218</v>
+        <v>3.811535358428955</v>
       </c>
       <c r="C1">
-        <v>2.330658551545877</v>
+        <v>5.672089576721191</v>
       </c>
       <c r="D1">
-        <v>3.674515990137071</v>
+        <v>1.638223648071289</v>
       </c>
       <c r="E1">
-        <v>0.8637774981941482</v>
+        <v>0.9616954922676086</v>
       </c>
     </row>
   </sheetData>
